--- a/result/model/model_weight.xlsx
+++ b/result/model/model_weight.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,71 +448,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BERT</t>
+          <t>3L RoBERTa-wwm</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1423192268619558</v>
+        <v>0.1955909585844036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BERT-wwm</t>
+          <t>3L RoBERTa-wwm-large</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1438491094643445</v>
+        <v>0.195361041528485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Re-trained RoBERTa-wwm</t>
+          <t>BERT-wwm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1392840327468824</v>
+        <v>0.2008483307704967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Re-trained RoBERTa-wwm-large</t>
+          <t>RoBERTa-wwm</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1394435308686685</v>
+        <v>0.2041127629653646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RoBERTa</t>
+          <t>RoBERTa-wwm-large</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1453669339084918</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RoBERTa-wwm</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1448737880711242</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>RoBERTa-wwm-large</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1448633780785327</v>
+        <v>0.2040869061512502</v>
       </c>
     </row>
   </sheetData>
